--- a/biology/Médecine/Veine_digitale_palmaire/Veine_digitale_palmaire.xlsx
+++ b/biology/Médecine/Veine_digitale_palmaire/Veine_digitale_palmaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les veines digitales palmaires sont des veines superficielles des doigts.
 </t>
@@ -511,7 +523,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les veines digitales palmaires sont au nombre de deux par doigt et cheminent de bas en haut sur les bords latéraux des doigts.
 Elles proviennent du réseau veineux pulpaire et se terminent au niveau des sillons interdigitaux.
